--- a/ejemplo2.xlsx
+++ b/ejemplo2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbsistemas2\Documents\Grabaciones de sonido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INSPIRON\Documents\Sicee\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>DocenteEmpleado_id</t>
   </si>
@@ -92,12 +92,75 @@
   </si>
   <si>
     <t>09:00</t>
+  </si>
+  <si>
+    <t>02JAG</t>
+  </si>
+  <si>
+    <t>02AF</t>
+  </si>
+  <si>
+    <t>EB1</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>02Ie</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>03JRL</t>
+  </si>
+  <si>
+    <t>04MVR</t>
+  </si>
+  <si>
+    <t>03IA</t>
+  </si>
+  <si>
+    <t>04IB</t>
+  </si>
+  <si>
+    <t>AA4</t>
+  </si>
+  <si>
+    <t>EB2</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>03AI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,9 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K3"/>
+  <dimension ref="A2:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,10 +490,10 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -463,8 +527,11 @@
       <c r="K2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -489,6 +556,466 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L124" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ejemplo2.xlsx
+++ b/ejemplo2.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>DocenteEmpleado_id</t>
   </si>
@@ -109,9 +109,6 @@
     <t>02Ie</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>03JRL</t>
   </si>
   <si>
@@ -155,6 +152,18 @@
   </si>
   <si>
     <t>03AI</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
   </si>
 </sst>
 </file>
@@ -476,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="A2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +536,6 @@
       <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -553,9 +559,6 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -580,62 +583,53 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -644,41 +638,143 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
